--- a/BOM表.xlsx
+++ b/BOM表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,21 +48,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【嘉立创CNC】我正在参加嘉立创CNC特价板类零件1元打样活动，点击和我一起参加CNC1元打样</t>
-  </si>
-  <si>
-    <t>M3×20杯头螺丝</t>
-  </si>
-  <si>
-    <t>M3×6平头或沉头螺丝</t>
-  </si>
-  <si>
     <t>M3六角螺母</t>
   </si>
   <si>
-    <t>M5×12杯头螺丝</t>
-  </si>
-  <si>
     <t>M5六角螺母</t>
   </si>
   <si>
@@ -72,12 +60,6 @@
     <t>T8切边法兰</t>
   </si>
   <si>
-    <t>T8螺杆</t>
-  </si>
-  <si>
-    <t>光轴8mm</t>
-  </si>
-  <si>
     <t>铝合金手轮圆形旋钮</t>
   </si>
   <si>
@@ -89,15 +71,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>190mm 6.8 300mm 9.3，短的可以用2mm导程，长的建议用4mm导程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单价(参考)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大夹持15cm左右(其他大小差别差不多就是螺杆和光轴的差价)</t>
+    <t>注意：这里的价格仅供参考哦，实际可能更便宜也可能更贵，以实际能买到的价格为准哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1最大夹持15cm左右(其他大小差别差不多就是螺杆和光轴的差价)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短的可以用2mm导程(默认)，长的建议用4mm导程，下单时记得备注;下单时记得备注要切边法兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含CNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是按使用估的价，之前如果没有买过各种螺丝、弹簧零件可能会需要买多余的会稍微贵点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3×8螺丝(6~8都可以)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3×20杯头螺丝(18~20都可以)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5×12杯头螺丝(10~12都可以)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【淘宝】http://e.tb.cn/h.gAQCwxIyroVmxB7?tk=MRA93pnvb30 CZ0001 「自制PCB夹具v1.0 配件一套(不含 cnc 加工件和安装工具)」
+点击链接直接打开 或者 淘宝搜索直接打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面的配件套装是我整理的放到我店铺的，其实都是标准件，往上都能买到一样的，如果懒得找可以直接从我这下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T8螺杆 200mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光轴8mm 200mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【嘉立创CNC】我正在参加嘉立创CNC特价板类零件1元打样活动，点击和我一起参加CNC1元打样：
+https://www.jlc-cnc.com/ac/ACUHiDI0/CPWXDXgd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +165,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -174,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,23 +223,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -505,34 +567,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="87.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -548,23 +610,23 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4">
@@ -574,29 +636,33 @@
         <f>6.5*2</f>
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
@@ -605,15 +671,15 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -622,15 +688,15 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -639,15 +705,15 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -656,181 +722,211 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
-        <v>8.9</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="E10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6.8</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F10" s="12"/>
+      <c r="G10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="10">
+        <v>8</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <f>SUM(E3:E14)</f>
-        <v>39.61</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="9">
+        <f>SUM(E4:E14)</f>
+        <v>35</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
+  <mergeCells count="10">
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="F4:F14"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId1" display="【嘉立创CNC】我正在参加嘉立创CNC特价板类零件1元打样活动，点击和我一起参加CNC1元打样"/>
+    <hyperlink ref="F4:F14" r:id="rId2" display="http://e.tb.cn/h.gAQCwxIyroVmxB7?tk=MRA93pnvb30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/BOM表.xlsx
+++ b/BOM表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,15 +71,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单价(参考)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注意：这里的价格仅供参考哦，实际可能更便宜也可能更贵，以实际能买到的价格为准哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.1最大夹持15cm左右(其他大小差别差不多就是螺杆和光轴的差价)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,6 +118,18 @@
   <si>
     <t>【嘉立创CNC】我正在参加嘉立创CNC特价板类零件1元打样活动，点击和我一起参加CNC1元打样：
 https://www.jlc-cnc.com/ac/ACUHiDI0/CPWXDXgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格(参考)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果使用合一的加工，可以省一次的钱，但需要收到后自己锯开，自己没法加工的或者嫌麻烦，或者求完美的，可以加工非合一的，一个月两次也够，就是会多一次邮费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1最大夹持15cm左右(其他大小差别差不多就是螺杆和光轴的长度)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,37 +233,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,7 +577,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,15 +593,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -610,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
@@ -619,7 +626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -636,10 +643,12 @@
         <f>6.5*2</f>
         <v>13</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
@@ -649,19 +658,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -672,14 +681,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -694,9 +703,9 @@
       <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -706,14 +715,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -728,9 +737,9 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -745,11 +754,11 @@
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -764,12 +773,12 @@
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>8</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7" t="s">
-        <v>18</v>
+      <c r="F10" s="14"/>
+      <c r="G10" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -785,11 +794,11 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>8</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
@@ -799,14 +808,14 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -816,16 +825,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
@@ -840,11 +849,11 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
-        <v>6</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="5">
+        <v>6</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
@@ -858,11 +867,11 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="9">
+      <c r="C16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5">
         <f>SUM(E4:E14)</f>
         <v>35</v>
       </c>
@@ -872,8 +881,8 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -888,25 +897,25 @@
       <c r="G18" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/BOM表.xlsx
+++ b/BOM表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>注意：这里的价格仅供参考哦，实际可能更便宜也可能更贵，以实际能买到的价格为准哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短的可以用2mm导程(默认)，长的建议用4mm导程，下单时记得备注;下单时记得备注要切边法兰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上面的配件套装是我整理的放到我店铺的，其实都是标准件，往上都能买到一样的，如果懒得找可以直接从我这下单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T8螺杆 200mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,7 +121,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v1.1最大夹持15cm左右(其他大小差别差不多就是螺杆和光轴的长度)</t>
+    <t>嘉立创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铨洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2最大夹持15cm左右(其他大小差别差不多就是螺杆和光轴的长度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面的配件套装是我整理的放到我店铺的，虽然都是网上能买到的标准件，但如果懒得自己找可以直接从我这下单，都是配好的配件包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短的可以用2mm导程(默认)，长的建议用4mm导程，下单时可以备注;下单时记得备注要切边法兰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,10 +178,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -191,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -214,12 +238,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,35 +315,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,96 +686,93 @@
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="5.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="87.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
         <f>6.5*2</f>
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -686,254 +783,324 @@
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="G10" s="16"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
         <v>8</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="G11" s="16"/>
+      <c r="H11" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>8</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>8</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="G14" s="16"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="5">
-        <v>6</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="5">
-        <f>SUM(E4:E14)</f>
-        <v>35</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5">
+        <f>SUM(F5:F15)</f>
+        <v>35</v>
+      </c>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="17">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H5:H10"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="G5:G15"/>
     <mergeCell ref="A21:G21"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="F4:F14"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="【嘉立创CNC】我正在参加嘉立创CNC特价板类零件1元打样活动，点击和我一起参加CNC1元打样"/>
-    <hyperlink ref="F4:F14" r:id="rId2" display="http://e.tb.cn/h.gAQCwxIyroVmxB7?tk=MRA93pnvb30"/>
+    <hyperlink ref="G4" r:id="rId1" display="【嘉立创CNC】我正在参加嘉立创CNC特价板类零件1元打样活动，点击和我一起参加CNC1元打样"/>
+    <hyperlink ref="G5:G15" r:id="rId2" display="http://e.tb.cn/h.gAQCwxIyroVmxB7?tk=MRA93pnvb30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/BOM表.xlsx
+++ b/BOM表.xlsx
@@ -108,36 +108,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>价格(参考)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果使用合一的加工，可以省一次的钱，但需要收到后自己锯开，自己没法加工的或者嫌麻烦，或者求完美的，可以加工非合一的，一个月两次也够，就是会多一次邮费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉立创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铨洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2最大夹持15cm左右(其他大小差别差不多就是螺杆和光轴的长度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面的配件套装是我整理的放到我店铺的，虽然都是网上能买到的标准件，但如果懒得自己找可以直接从我这下单，都是配好的配件包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短的可以用2mm导程(默认)，长的建议用4mm导程，下单时可以备注;下单时记得备注要切边法兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>【嘉立创CNC】我正在参加嘉立创CNC特价板类零件1元打样活动，点击和我一起参加CNC1元打样：
-https://www.jlc-cnc.com/ac/ACUHiDI0/CPWXDXgd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格(参考)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果使用合一的加工，可以省一次的钱，但需要收到后自己锯开，自己没法加工的或者嫌麻烦，或者求完美的，可以加工非合一的，一个月两次也够，就是会多一次邮费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉立创</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铨洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.2最大夹持15cm左右(其他大小差别差不多就是螺杆和光轴的长度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上面的配件套装是我整理的放到我店铺的，虽然都是网上能买到的标准件，但如果懒得自己找可以直接从我这下单，都是配好的配件包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短的可以用2mm导程(默认)，长的建议用4mm导程，下单时可以备注;下单时记得备注要切边法兰</t>
+https://www.jlc-cnc.com/ac/ACUHiDI0/CP2tCHBI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,6 +324,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,29 +357,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,7 +677,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A22" sqref="A22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -694,54 +694,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="D2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
@@ -764,10 +764,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -786,13 +786,13 @@
       <c r="E5" s="8">
         <v>2</v>
       </c>
-      <c r="F5" s="10">
-        <v>2</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="14">
+        <v>2</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -812,9 +812,9 @@
       <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -832,9 +832,9 @@
       <c r="E7" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -852,9 +852,9 @@
       <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -872,9 +872,9 @@
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -895,8 +895,8 @@
       <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
@@ -917,9 +917,9 @@
       <c r="F11" s="5">
         <v>8</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14" t="s">
-        <v>31</v>
+      <c r="G11" s="20"/>
+      <c r="H11" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -938,11 +938,11 @@
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="14">
         <v>8</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -960,9 +960,9 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
@@ -983,8 +983,8 @@
       <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
@@ -1005,8 +1005,8 @@
       <c r="F15" s="5">
         <v>6</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
@@ -1021,10 +1021,10 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="7"/>
       <c r="F17" s="5">
         <f>SUM(F5:F15)</f>
@@ -1036,8 +1036,8 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="8"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
@@ -1054,31 +1054,32 @@
       <c r="H19" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="A21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="F12:F13"/>
@@ -1095,11 +1096,10 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="【嘉立创CNC】我正在参加嘉立创CNC特价板类零件1元打样活动，点击和我一起参加CNC1元打样"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://www.jlc-cnc.com/ac/ACUHiDI0/CP2tCHBI"/>
     <hyperlink ref="G5:G15" r:id="rId2" display="http://e.tb.cn/h.gAQCwxIyroVmxB7?tk=MRA93pnvb30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
